--- a/2024 Game Day Info/Week 7_ ATX @ ATL (Sat) /5.18 Game Day Packet.xlsx
+++ b/2024 Game Day Info/Week 7_ ATX @ ATL (Sat) /5.18 Game Day Packet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="415">
   <si>
     <t>Team leaders must effectively communicate with other team leaders regarding travel plans and game times prior to and on game days.</t>
   </si>
@@ -471,6 +471,673 @@
     <t>Fun Facts</t>
   </si>
   <si>
+    <t>Quincy Booth</t>
+  </si>
+  <si>
+    <t>she/her</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Athens GA</t>
+  </si>
+  <si>
+    <t>UGA Athena</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>High School: Decatur High School, All of Atl YCC
+College: UGA Athena (Captain)
+Club: Atlanta Ozone
+National: WJUC U20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a pet snake </t>
+  </si>
+  <si>
+    <t>Mia Griner</t>
+  </si>
+  <si>
+    <t>M-ee-u Gr-EYE-ner (?)</t>
+  </si>
+  <si>
+    <t>She/Her</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Kennesaw, GA</t>
+  </si>
+  <si>
+    <t>East Coast/Canada Active Account Manager - MYLAPS Sports Technology</t>
+  </si>
+  <si>
+    <t>College: UCF Sirens, KSU Strix
+Club: Weird, Roma
+Coaching: Southeast Women's Regional Coordinator for USAU Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referee for many sports, primarily flag football, soccer, and UFA (AUDL). </t>
+  </si>
+  <si>
+    <t>Emma Jaschke</t>
+  </si>
+  <si>
+    <t>Jaschke</t>
+  </si>
+  <si>
+    <t>Emma JASS-kee</t>
+  </si>
+  <si>
+    <t>she/they</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Saint Paul, MN</t>
+  </si>
+  <si>
+    <t>Chattanooga, TN</t>
+  </si>
+  <si>
+    <t>public school teacher (high school math)</t>
+  </si>
+  <si>
+    <t>College: University of Minnesota Women's Team (Matrix)
+WUL: AZ Sidewinders
+Club: MoonPi</t>
+  </si>
+  <si>
+    <t>Hannah Abraham</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Hannah Abraham (like the President)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Simpsonville, SC</t>
+  </si>
+  <si>
+    <t>Verdant</t>
+  </si>
+  <si>
+    <t>Medical Device Project Manager</t>
+  </si>
+  <si>
+    <t>College: Clemson University
+Club: Swamp Rabbit, BRUH, Possum, Verdant (Captain)
+Masters: Old Money
+Women's Coordinator for Greenville Ultimate Community, USAU East Coast Sectionals Coordinator</t>
+  </si>
+  <si>
+    <t>1. Related to Johnny Cash 2. I play the flute</t>
+  </si>
+  <si>
+    <t>Lindsi Allman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindsi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lind-z all-man </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She they </t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Tallahassee, FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tallahassee </t>
+  </si>
+  <si>
+    <t>phd Student in Geology at FSU</t>
+  </si>
+  <si>
+    <t>College: Florida State SLUT
+Club: Tabby Rosa, Weird
+Coaching: Florida State SLUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I once grew a giant cabbage when I was 8 and it was bigger than me.
+My family is from Sopchoppy Florida, home of the Worm Gruntin Festival </t>
+  </si>
+  <si>
+    <t>Naomi Anderson</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>nay-OH-mee AN-der-sen</t>
+  </si>
+  <si>
+    <t>She/her</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Columbus, GA</t>
+  </si>
+  <si>
+    <t>Gainesville, Florida</t>
+  </si>
+  <si>
+    <t>Clinical Research Assistant</t>
+  </si>
+  <si>
+    <t>Club: HOG, Ozone, Rainbow Brigade
+Coaching: Help assist w/UF ultimate, Fuel/Diesel/UF B team</t>
+  </si>
+  <si>
+    <t>Ellen Mayer</t>
+  </si>
+  <si>
+    <t>Elle</t>
+  </si>
+  <si>
+    <t>Eh-lee MY-er</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>High School: Brookwood HS
+College: UGA Athena
+Club: Athens Murmur</t>
+  </si>
+  <si>
+    <t>Soju Hokari</t>
+  </si>
+  <si>
+    <t>Honestly, it's pronounced so differently in English that it doesn't really matter. But equal emphasis on syllables, with two syllables for the first name and three for the last name is preferred.</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Eugene, OR</t>
+  </si>
+  <si>
+    <t>Student at Emory University! BA, Women's, Gender, and Sexuality Studies; minor in data science</t>
+  </si>
+  <si>
+    <t>High School: South Eugene High School Gender Diverse Ultimate (2017–2021), Oregon Downpour (2021; U-20 national champions)
+College: Emory LUNA (2021–present)
+Club: Atlanta Ozone (2021–present)
+Coaching: leagues and camps for Emerald Valley Ultimate (Eugene, OR)
+Member of the USAU LGBTQ+ Advisory Council; very involved in efforts to create more spaces in ultimate frisbee that celebrate trans athletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I grew up reading books upside down, </t>
+  </si>
+  <si>
+    <t>Samantha Li</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Suh-man-tha LEE</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>High School: YCC NYC Skyscrapers
+College: Emory Luna
+Club: Atlanta Ozone, Atlanta Flock</t>
+  </si>
+  <si>
+    <t>Morgan Dale</t>
+  </si>
+  <si>
+    <t>Morgan Lally</t>
+  </si>
+  <si>
+    <t>Morgan Lally (l AE - l ee)</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Asheville, NC</t>
+  </si>
+  <si>
+    <t>Director of NCAA Compliance at Georgia Tech</t>
+  </si>
+  <si>
+    <t>College: Berry College
+Club: Cahoots, Roma</t>
+  </si>
+  <si>
+    <t>I have a twin sister. I have been to 2 women's world cups.</t>
+  </si>
+  <si>
+    <t>Therese Doebler</t>
+  </si>
+  <si>
+    <t>Tur-reese DOUGH-blur</t>
+  </si>
+  <si>
+    <t>She/ Her</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Tampa, FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director of Education </t>
+  </si>
+  <si>
+    <t>College: USF womens
+Club: Team Seven, Jolly Roger, Mutiny, Weird, Crown, M’Kay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therese runs on Dunkin
+I’ve never met a macaroni and cheese I didn't like. </t>
+  </si>
+  <si>
+    <t>Charlotte Doran</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>SHAR-lit DOR-in</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Natick, MA</t>
+  </si>
+  <si>
+    <t>Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>PhD Student in Epidemiology</t>
+  </si>
+  <si>
+    <t>High School: Phillips Academy Blue Steel
+College: Vanderbilt Surge (formerly VUDU)
+Club: Boston Wild Card (practice squad), Boston Siege, Atlanta Ozone (practice squad)
+Coached: Northeastern Valkyries B team, aka the Balkyries for 5 years</t>
+  </si>
+  <si>
+    <t>My partner and I have two blue heeler rescues at home, and I own a cake decorating tool suitcase that gets a lot of use</t>
+  </si>
+  <si>
+    <t>Alexandra Krueger</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alex Krueger - Alex (Galaxy) CREW-grr</t>
+  </si>
+  <si>
+    <t>she/her/hers</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Decatur, GA</t>
+  </si>
+  <si>
+    <t>middle school teacher</t>
+  </si>
+  <si>
+    <t>WUL: Los Angeles Astra
+Club: Los Angeles Rampage, Chicago Nemesis, Chicago Dish; 
+College: University of Chicago; International Teams: Bogotá Bamboo, Kisumu Frisbee Club (Kenya); 
+Masters: Hot Flash</t>
+  </si>
+  <si>
+    <t>- I have a one year old baby and am excited to be able to continue playing at the Pro level as an ultimate Mom.
+- I play the violin, and I played an electric violin in a rock orchestra in high school.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Laúd Vargas Vázquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Vargas </t>
+  </si>
+  <si>
+    <t>She/Her/Hers</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Ozone (Captain)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinator of Sport for Development Programs at JUF A.C. </t>
+  </si>
+  <si>
+    <t>Club: Malafama, Malaki, Slash
+National: Mexican National Team 
+Coaching: Ultimate Peace US Camp, cATLanta YCC</t>
+  </si>
+  <si>
+    <t>Martha Wilber</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Server at Homegrown GA, student at Georgia State</t>
+  </si>
+  <si>
+    <t>College: UGA Athena
+Club: Athens Murmur, Atlanta Ozone</t>
+  </si>
+  <si>
+    <t>1) Hiked the entire Appalachian Trail
+2) I play the cello</t>
+  </si>
+  <si>
+    <t>Jordan Harn</t>
+  </si>
+  <si>
+    <t>Jordan Harn - Jordan HAARN (sounds like hard with an N)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>Corporate finance</t>
+  </si>
+  <si>
+    <t>College: Texas A&amp;M University
+Club: Flagstaff Ultimate Club, Arizona Lawless, Instant Karma, Balloon
+WUL: Arizona Sidewinders
+Coaching: Grand Canyon University (Open) - 2022; Grand Canyon University (Women’s) - 2023-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I used to compete against Simone Biles as a kid; </t>
+  </si>
+  <si>
+    <t>Jennifer Lin</t>
+  </si>
+  <si>
+    <t>JLin</t>
+  </si>
+  <si>
+    <t>she/hers</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Winston-Salem, NC</t>
+  </si>
+  <si>
+    <t>Chapel Hill, North Carolina</t>
+  </si>
+  <si>
+    <t>Shiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medical assistant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College: UNC Electra
+Club: Rogue, Taco Truck, Shiver (Captain)
+Coaching: UNC Electra - Women's B team, Head coach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tore my meniscus hitting the whip, I have 2 dogs </t>
+  </si>
+  <si>
+    <t>Megan Jarriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megan Jarrel (like barrel with a J) </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>Electrical Engineer</t>
+  </si>
+  <si>
+    <t>College: Purdue
+Club: Indy Rogue, Outbreak, Roma 
+Coaching: Midtown High School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love hiking/backpacking and have a dog named Peanut </t>
+  </si>
+  <si>
+    <t>Lilli Popovich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilli </t>
+  </si>
+  <si>
+    <t>Lilli PAW-po-vich</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Personal Trainer</t>
+  </si>
+  <si>
+    <t>Club: Steamboat (Cincinnati); Too Much Fun (Asheville)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  When I lived in Belize, I participated in a greased pig competition. Within 8 seconds, I caught it and carried it out the gate. My prize- keeping the 60 pound pig. 
+2. I threw discus in college for the University of Louisville </t>
+  </si>
+  <si>
+    <t>Liv Ford</t>
+  </si>
+  <si>
+    <t>Liv</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>College: Elon University Wild Rumpus
+Club: Taco Truck (women's), Crown Peach (mixed), Ozone (women's)
+Coaching: Chamblee High School (Open JV), cATLanta (YCC U20 Girls)</t>
+  </si>
+  <si>
+    <t>Natalie Wilson</t>
+  </si>
+  <si>
+    <t>Willy</t>
+  </si>
+  <si>
+    <t>Natalie (Willy) Wilson - I don’t care if they say Natalie or Willy but I like when they say Willy Wilson bc it sounds so silly</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Transportation Planner</t>
+  </si>
+  <si>
+    <t>College: FSU college team (SLUT)
+Club: FL Weird, FL Tabby Rosa
+Coaching: FSU college team (SLUT)
+Leader in Tallahassee Ultimate League</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I grew up in ATL, I can outrun my border collie </t>
+  </si>
+  <si>
+    <t>Annalise Paul</t>
+  </si>
+  <si>
+    <t>Anna-lease Paw-l</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Oak Park, IL</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Magma, Jabba, Wellesley Whiptails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love to crochet
+</t>
+  </si>
+  <si>
+    <t>Sarah Kingsley-Hart</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Sarah Kingsley-Hart (SAIR-ah King-SLEE Hart)</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Atlanta, Ga</t>
+  </si>
+  <si>
+    <t>Grad Student</t>
+  </si>
+  <si>
+    <t>College: Wake Forest Ruckus
+Club: Carolina Reign, Outbreak, Mkay
+Coaching: Midtown High School JV Girls
+USAU Southeast Womens Section Coordinator</t>
+  </si>
+  <si>
+    <t>I have dog named Millee and I played the saxophone in high school and college</t>
+  </si>
+  <si>
+    <t>Daniela Ortiz</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Dani Orteez</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Club: Malafama (2019-2022), Malaki (2017-2019), Slash (2019-2023), Roma Ultima (2023)
+National: Mexico national team (2020-today)
+Malafama captain 2022, 2023. Slash captain 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am allergic to coffee, I don´t like any chocolate things but I like eating chocolate </t>
+  </si>
+  <si>
+    <t>Christina Marsicano</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>Mar-SI-can-o</t>
+  </si>
+  <si>
+    <t>she/ her</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Charleston, SC</t>
+  </si>
+  <si>
+    <t>Club: Chaos, Charleston SC</t>
+  </si>
+  <si>
+    <t>College: Women's College of Charleston
+Club: Apex, Ozone, Atlanta Soul, and starting a women's team Chaos for the 2024 club season
+Coached: Women's College of Charleston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a bearded dragon. I run pool tables </t>
+  </si>
+  <si>
+    <t>Fiona Cashin</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>FEE-O-NA</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Athens, GA</t>
+  </si>
+  <si>
+    <t>College: UGA Athena</t>
+  </si>
+  <si>
+    <t>Student at UGA</t>
+  </si>
+  <si>
+    <t>College: UGA Athena (Captain)
+Club: Murmur, Ozone (Captain)</t>
+  </si>
+  <si>
+    <t>I have a pet snake, I always win the Soul handstand contests</t>
+  </si>
+  <si>
     <t>Away Team Game Day Information</t>
   </si>
   <si>
@@ -537,21 +1204,30 @@
     </r>
   </si>
   <si>
+    <t>Maggie Rowell</t>
+  </si>
+  <si>
+    <t>rhymes with towel</t>
+  </si>
+  <si>
+    <t>she / her</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Cleveland, OH</t>
+  </si>
+  <si>
+    <t>Prevously on Columbus Pride</t>
+  </si>
+  <si>
     <t>Elise Bjork</t>
   </si>
   <si>
     <t>ee-LEASE bee-YORK</t>
   </si>
   <si>
-    <t>she / her</t>
-  </si>
-  <si>
-    <t>Houston, TX</t>
-  </si>
-  <si>
-    <t>Austin, TX</t>
-  </si>
-  <si>
     <t>Coach of Austin Vengeance, Texas Melee Alum</t>
   </si>
   <si>
@@ -576,6 +1252,12 @@
     <t>Texas Melee Alum</t>
   </si>
   <si>
+    <t>Mindy Radike</t>
+  </si>
+  <si>
+    <t>Rad - icky</t>
+  </si>
+  <si>
     <t>Summer Wilson</t>
   </si>
   <si>
@@ -675,9 +1357,6 @@
     <t>jay-mee es-tees</t>
   </si>
   <si>
-    <t>Tallahassee, FL</t>
-  </si>
-  <si>
     <t>Coach of Texas Melee</t>
   </si>
   <si>
@@ -687,9 +1366,6 @@
     <t>Arlington, MA</t>
   </si>
   <si>
-    <t>Mackenzie Bailey</t>
-  </si>
-  <si>
     <t>Maddy Easton</t>
   </si>
   <si>
@@ -697,21 +1373,6 @@
   </si>
   <si>
     <t>The Woodlands, TX</t>
-  </si>
-  <si>
-    <t>Maggie Rowell</t>
-  </si>
-  <si>
-    <t>rhymes with towel</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Cleveland, OH</t>
-  </si>
-  <si>
-    <t>Prevously on Columbus Pride</t>
   </si>
   <si>
     <t>Coaching / Staff</t>
@@ -849,7 +1510,7 @@
     </font>
     <font/>
     <font>
-      <u/>
+      <sz val="18.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -896,7 +1557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border/>
     <border>
       <bottom style="thin">
@@ -926,6 +1587,19 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -936,19 +1610,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1108,6 +1774,39 @@
     <xf borderId="3" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1115,9 +1814,6 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1132,38 +1828,53 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1175,12 +1886,6 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -9382,454 +10087,1004 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="A11" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="A12" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="M12" s="38"/>
     </row>
     <row r="13">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="A13" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
+      <c r="A14" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="64" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
+      <c r="A15" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="64" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
+      <c r="A16" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
+      <c r="A17" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
+      <c r="A18" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="64" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
+      <c r="A19" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="63">
+        <v>3.0</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="A20" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="64" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="A21" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="64" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
+      <c r="A22" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="M22" s="64" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
+      <c r="A23" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="M23" s="64" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
+      <c r="A24" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="A25" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="M25" s="64" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
+      <c r="A26" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="M26" s="64" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
+      <c r="A27" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="I27" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" s="38"/>
+      <c r="M27" s="64" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
+      <c r="A28" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="F28" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" s="38"/>
+      <c r="M28" s="64" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
+      <c r="A29" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="63">
+        <v>11.0</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="L29" s="38"/>
+      <c r="M29" s="64" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
+      <c r="A30" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
     </row>
     <row r="31">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
+      <c r="A31" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" s="63">
+        <v>3.0</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" s="38"/>
+      <c r="M31" s="64" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="59"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+      <c r="A32" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" s="38"/>
+      <c r="M32" s="64" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
+      <c r="A33" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="F33" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" s="38"/>
+      <c r="M33" s="64" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="59"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
+      <c r="A34" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="F34" s="65">
+        <v>2.0</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="L34" s="38"/>
+      <c r="M34" s="64" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
+      <c r="A35" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="F35" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" s="43"/>
+      <c r="K35" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" s="38"/>
+      <c r="M35" s="64" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="59"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
+      <c r="A36" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" s="65">
+        <v>3.0</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="I36" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="J36" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="L36" s="38"/>
+      <c r="M36" s="64" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
     </row>
     <row r="38">
-      <c r="A38" s="59"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
     </row>
     <row r="39">
-      <c r="A39" s="59"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
     </row>
     <row r="40">
-      <c r="A40" s="59"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9860,19 +11115,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="60">
+        <v>336</v>
+      </c>
+      <c r="B3" s="70">
         <v>0.7083333333333334</v>
       </c>
     </row>
@@ -9882,16 +11137,16 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="B5" s="20"/>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>136</v>
+        <v>338</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="7" ht="5.25" customHeight="1">
@@ -9900,7 +11155,7 @@
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>137</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
@@ -9908,7 +11163,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>138</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10">
@@ -9916,12 +11171,12 @@
         <v>46</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>139</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="B11" s="18">
         <v>19.0</v>
@@ -9929,7 +11184,7 @@
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="B12" s="18">
         <v>2.0</v>
@@ -10000,14 +11255,14 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="C2" s="47"/>
     </row>
@@ -10016,7 +11271,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="C3" s="47"/>
     </row>
@@ -10024,7 +11279,7 @@
       <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="72">
         <v>45430.0</v>
       </c>
     </row>
@@ -10033,7 +11288,7 @@
     </row>
     <row r="6">
       <c r="A6" s="51" t="s">
-        <v>145</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
@@ -10079,494 +11334,494 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="64">
+      <c r="A11" s="73" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="76">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78" t="s">
+        <v>354</v>
+      </c>
+      <c r="J11" s="79"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="81">
         <v>2.0</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="67"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="71">
+      <c r="E12" s="82"/>
+      <c r="F12" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="J12" s="84"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="85">
         <v>3.0</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E13" s="74">
         <v>1.0</v>
       </c>
-      <c r="F12" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="J12" s="73"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="70">
+      <c r="F13" s="74" t="s">
+        <v>359</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="J13" s="79"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="74">
         <v>7.0</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" s="73"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="75">
+      <c r="E14" s="77"/>
+      <c r="F14" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>363</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="88">
+        <v>8.0</v>
+      </c>
+      <c r="E15" s="77"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="89" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="90">
         <v>9.0</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="J14" s="73"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="70">
+      <c r="E16" s="77"/>
+      <c r="F16" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="I16" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="J16" s="79"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="74">
         <v>10.0</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" s="73"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="71">
+      <c r="E17" s="77"/>
+      <c r="F17" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="J17" s="79"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="85">
         <v>12.0</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="73"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="70">
+      <c r="E18" s="77"/>
+      <c r="F18" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>373</v>
+      </c>
+      <c r="J18" s="79"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="74">
         <v>15.0</v>
       </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="73"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="70">
+      <c r="E19" s="77"/>
+      <c r="F19" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>363</v>
+      </c>
+      <c r="I19" s="78" t="s">
+        <v>376</v>
+      </c>
+      <c r="J19" s="79"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="74">
         <v>16.0</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E20" s="74">
         <v>1.0</v>
       </c>
-      <c r="F18" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="70" t="s">
+      <c r="F20" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" s="77"/>
+      <c r="J20" s="91" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="74">
+        <v>19.0</v>
+      </c>
+      <c r="E21" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="85">
+        <v>22.0</v>
+      </c>
+      <c r="E22" s="77"/>
+      <c r="F22" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="77"/>
+      <c r="I22" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="J22" s="79"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="74">
+        <v>26.0</v>
+      </c>
+      <c r="E23" s="77"/>
+      <c r="F23" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="79"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="85">
+        <v>27.0</v>
+      </c>
+      <c r="E24" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="79"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="74">
+        <v>31.0</v>
+      </c>
+      <c r="E25" s="77"/>
+      <c r="F25" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="J25" s="79"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" s="77"/>
+      <c r="C26" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="D26" s="74">
+        <v>42.0</v>
+      </c>
+      <c r="E26" s="77"/>
+      <c r="F26" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="74">
+        <v>69.0</v>
+      </c>
+      <c r="E27" s="77"/>
+      <c r="F27" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="70">
-        <v>19.0</v>
-      </c>
-      <c r="E19" s="70">
+      <c r="G27" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H27" s="77"/>
+      <c r="I27" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="J27" s="79"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" s="77"/>
+      <c r="C28" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="D28" s="85">
+        <v>73.0</v>
+      </c>
+      <c r="E28" s="74">
         <v>1.0</v>
       </c>
-      <c r="F19" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="73"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="71">
-        <v>22.0</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" s="73"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="70">
-        <v>26.0</v>
-      </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="73"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="71">
-        <v>27.0</v>
-      </c>
-      <c r="E22" s="70">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="73"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="70">
-        <v>31.0</v>
-      </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="73"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="70">
-        <v>42.0</v>
-      </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="70">
-        <v>69.0</v>
-      </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="G25" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="J25" s="73"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="71">
-        <v>73.0</v>
-      </c>
-      <c r="E26" s="70">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="70">
-        <v>81.0</v>
-      </c>
-      <c r="E27" s="70">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="73"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="70">
+      <c r="F28" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" s="77"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="77"/>
+      <c r="C29" s="92" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="74">
         <v>88.0</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="J29" s="73"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="74" t="s">
+        <v>405</v>
+      </c>
+      <c r="G29" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
     </row>
     <row r="30">
       <c r="A30" s="41"/>
@@ -10581,148 +11836,148 @@
       <c r="J30" s="38"/>
     </row>
     <row r="31">
-      <c r="A31" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
+      <c r="A31" s="93" t="s">
+        <v>406</v>
+      </c>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="38"/>
     </row>
     <row r="32">
-      <c r="A32" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
+      <c r="A32" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" s="77"/>
+      <c r="C32" s="85" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>409</v>
+      </c>
+      <c r="E32" s="79"/>
+      <c r="F32" s="85" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
       <c r="J32" s="38"/>
     </row>
     <row r="33">
-      <c r="A33" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="G33" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
+      <c r="A33" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>412</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="E33" s="77"/>
+      <c r="F33" s="74" t="s">
+        <v>414</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="38"/>
     </row>
     <row r="34">
-      <c r="A34" s="59"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="57"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="68"/>
     </row>
     <row r="36">
-      <c r="A36" s="59"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
     </row>
     <row r="37">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
     </row>
     <row r="38">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
     </row>
     <row r="39">
-      <c r="A39" s="59"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
     </row>
     <row r="40">
-      <c r="A40" s="59"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
